--- a/com.moon.work/excelToWord/data.xlsx
+++ b/com.moon.work/excelToWord/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\localproject\python\demoProject\com.moon.work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\localproject\python\demoProject\com.moon.work\excelToWord\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7AC950-C214-410C-8C1C-FEA5490DEA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D738EC99-BDA5-4BDE-932B-4769BEED77DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$AQ$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$AQ$3</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>姓名</t>
   </si>
@@ -60,48 +60,6 @@
   </si>
   <si>
     <t>配件管理员</t>
-  </si>
-  <si>
-    <t>付首金</t>
-  </si>
-  <si>
-    <t>大区部家装业务部高级经理</t>
-  </si>
-  <si>
-    <t>谭雅文</t>
-  </si>
-  <si>
-    <t>钟晓霞</t>
-  </si>
-  <si>
-    <t>黄先利</t>
-  </si>
-  <si>
-    <t>交付专员</t>
-  </si>
-  <si>
-    <t>梁丽静</t>
-  </si>
-  <si>
-    <t>唐桂敏</t>
-  </si>
-  <si>
-    <t>张凌</t>
-  </si>
-  <si>
-    <t>庄小林</t>
-  </si>
-  <si>
-    <t>代冲</t>
-  </si>
-  <si>
-    <t>大区部人文行政部高级经理</t>
-  </si>
-  <si>
-    <t>毛琪</t>
-  </si>
-  <si>
-    <t>张富凯</t>
   </si>
   <si>
     <t>交通补贴</t>
@@ -113,23 +71,6 @@
   </si>
   <si>
     <t>餐费补贴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>交付主管</t>
-  </si>
-  <si>
-    <t>培训经理</t>
-  </si>
-  <si>
-    <t>市场主管</t>
-  </si>
-  <si>
-    <t>龚映月</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>人文行政主管</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -194,7 +135,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,12 +163,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,7 +206,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -287,9 +222,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -585,50 +517,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="7"/>
+    <col min="11" max="11" width="8.875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>3</v>
@@ -668,392 +600,12 @@
       <c r="I3" s="4">
         <v>4600</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <v>5472</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5">
-        <v>8872</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5">
-        <v>350</v>
-      </c>
-      <c r="G4" s="5">
-        <v>300</v>
-      </c>
-      <c r="H4" s="5">
-        <v>9488</v>
-      </c>
-      <c r="I4" s="6">
-        <v>38020</v>
-      </c>
-      <c r="K4" s="8">
-        <v>19010</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="5">
-        <v>5687</v>
-      </c>
-      <c r="E5" s="5">
-        <v>200</v>
-      </c>
-      <c r="F5" s="5">
-        <v>100</v>
-      </c>
-      <c r="G5" s="5">
-        <v>300</v>
-      </c>
-      <c r="H5" s="5">
-        <v>2769</v>
-      </c>
-      <c r="I5" s="4">
-        <v>7696</v>
-      </c>
-      <c r="K5" s="8">
-        <v>9056</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="5">
-        <v>4053</v>
-      </c>
-      <c r="E6" s="5">
-        <v>200</v>
-      </c>
-      <c r="F6" s="5">
-        <v>100</v>
-      </c>
-      <c r="G6" s="5">
-        <v>300</v>
-      </c>
-      <c r="H6" s="5">
-        <v>2412</v>
-      </c>
-      <c r="I6" s="4">
-        <v>5433</v>
-      </c>
-      <c r="K6" s="8">
-        <v>7065</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="5">
-        <v>3602</v>
-      </c>
-      <c r="E7" s="5">
-        <v>200</v>
-      </c>
-      <c r="F7" s="5">
-        <v>100</v>
-      </c>
-      <c r="G7" s="5">
-        <v>300</v>
-      </c>
-      <c r="H7" s="5">
-        <v>1831</v>
-      </c>
-      <c r="I7" s="4">
-        <v>5000</v>
-      </c>
-      <c r="K7" s="8">
-        <v>6033</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="5">
-        <v>3628</v>
-      </c>
-      <c r="E8" s="5">
-        <v>200</v>
-      </c>
-      <c r="F8" s="5">
-        <v>100</v>
-      </c>
-      <c r="G8" s="5">
-        <v>300</v>
-      </c>
-      <c r="H8" s="5">
-        <v>1854</v>
-      </c>
-      <c r="I8" s="4">
-        <v>5300</v>
-      </c>
-      <c r="K8" s="8">
-        <v>6082</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="5">
-        <v>3661</v>
-      </c>
-      <c r="E9" s="5">
-        <v>200</v>
-      </c>
-      <c r="F9" s="5">
-        <v>100</v>
-      </c>
-      <c r="G9" s="5">
-        <v>300</v>
-      </c>
-      <c r="H9" s="5">
-        <v>1872</v>
-      </c>
-      <c r="I9" s="4">
-        <v>5300</v>
-      </c>
-      <c r="K9" s="8">
-        <v>6133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="5">
-        <v>3853</v>
-      </c>
-      <c r="E10" s="5">
-        <v>200</v>
-      </c>
-      <c r="F10" s="5">
-        <v>100</v>
-      </c>
-      <c r="G10" s="5">
-        <v>300</v>
-      </c>
-      <c r="H10" s="5">
-        <v>1888</v>
-      </c>
-      <c r="I10" s="4">
-        <v>5600</v>
-      </c>
-      <c r="K10" s="8">
-        <v>6341</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="5">
-        <v>4819</v>
-      </c>
-      <c r="E11" s="5">
-        <v>200</v>
-      </c>
-      <c r="F11" s="5">
-        <v>100</v>
-      </c>
-      <c r="G11" s="5">
-        <v>300</v>
-      </c>
-      <c r="H11" s="5">
-        <v>5415</v>
-      </c>
-      <c r="I11" s="4">
-        <v>20000</v>
-      </c>
-      <c r="K11" s="8">
-        <v>10834</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="5">
-        <v>10262</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5">
-        <v>350</v>
-      </c>
-      <c r="G12" s="5">
-        <v>300</v>
-      </c>
-      <c r="H12" s="5">
-        <v>7258</v>
-      </c>
-      <c r="I12" s="4">
-        <v>30000</v>
-      </c>
-      <c r="K12" s="8">
-        <v>18170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="5">
-        <v>5627</v>
-      </c>
-      <c r="E13" s="5">
-        <v>200</v>
-      </c>
-      <c r="F13" s="5">
-        <v>100</v>
-      </c>
-      <c r="G13" s="5">
-        <v>300</v>
-      </c>
-      <c r="H13" s="5">
-        <v>2705</v>
-      </c>
-      <c r="I13" s="4">
-        <v>7000</v>
-      </c>
-      <c r="K13" s="8">
-        <v>8932</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="5">
-        <v>4547</v>
-      </c>
-      <c r="E14" s="5">
-        <v>200</v>
-      </c>
-      <c r="F14" s="5">
-        <v>100</v>
-      </c>
-      <c r="G14" s="5">
-        <v>300</v>
-      </c>
-      <c r="H14" s="5">
-        <v>3566</v>
-      </c>
-      <c r="I14" s="4">
-        <v>6923</v>
-      </c>
-      <c r="K14" s="8">
-        <v>8713</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="5">
-        <v>3997</v>
-      </c>
-      <c r="E15" s="5">
-        <v>200</v>
-      </c>
-      <c r="F15" s="5">
-        <v>100</v>
-      </c>
-      <c r="G15" s="5">
-        <v>300</v>
-      </c>
-      <c r="H15" s="5">
-        <v>3066</v>
-      </c>
-      <c r="I15" s="4">
-        <v>7300</v>
-      </c>
-      <c r="K15" s="8">
-        <v>7663</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:AQ15" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="B2:AQ3" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="4">
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="A1:A2"/>
